--- a/app/data/templates/factory_report.xlsx
+++ b/app/data/templates/factory_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synth\Desktop\works_env\21.Work_Streamlit\Sanbou_app\app\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D70D047-E357-4798-AB2D-36FA8272FF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63ACBA8-4674-4135-8754-770655773CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{0A80F59E-C948-4541-8343-D85B94652641}"/>
   </bookViews>
@@ -2803,10 +2803,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:K14"/>
+      <selection activeCell="J8" sqref="J8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3597,7 +3597,7 @@
       <c r="P24" s="57"/>
       <c r="Q24" s="58"/>
       <c r="R24" s="132" cm="1">
-        <f t="array" ref="R24">SUMPRODUCT(IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(C22:Q35, "kg", ""), ",", "")), 0))</f>
+        <f t="array" ref="R24">SUMPRODUCT(IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(C22:Q33, "kg", ""), ",", "")), 0))</f>
         <v>0</v>
       </c>
       <c r="S24" s="133"/>
@@ -3773,7 +3773,7 @@
       <c r="R30" s="134"/>
       <c r="S30" s="135"/>
     </row>
-    <row r="31" spans="1:29" ht="21" customHeight="1">
+    <row r="31" spans="1:29" ht="21" customHeight="1" thickBot="1">
       <c r="A31" s="86"/>
       <c r="B31" s="189"/>
       <c r="C31" s="59"/>
@@ -3827,327 +3827,323 @@
       <c r="O32" s="58"/>
       <c r="P32" s="98"/>
       <c r="Q32" s="101"/>
-      <c r="R32" s="134"/>
-      <c r="S32" s="135"/>
+      <c r="R32" s="213" t="s">
+        <v>26</v>
+      </c>
+      <c r="S32" s="214"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1" thickBot="1">
       <c r="A33" s="86"/>
-      <c r="B33" s="189"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="100"/>
       <c r="E33" s="5" t="str">
         <f>IF(C33="","","kg")</f>
         <v/>
       </c>
-      <c r="F33" s="79"/>
-      <c r="G33" s="60"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="100"/>
       <c r="H33" s="5" t="str">
         <f>IF(F33="","","kg")</f>
         <v/>
       </c>
-      <c r="I33" s="79"/>
-      <c r="J33" s="60"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="100"/>
       <c r="K33" s="5" t="str">
         <f>IF(I33="","","kg")</f>
         <v/>
       </c>
-      <c r="L33" s="79"/>
-      <c r="M33" s="60"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="100"/>
       <c r="N33" s="5" t="str">
         <f>IF(L33="","","kg")</f>
         <v/>
       </c>
-      <c r="O33" s="79"/>
-      <c r="P33" s="60"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="100"/>
       <c r="Q33" s="5" t="str">
         <f>IF(O33="","","kg")</f>
         <v/>
       </c>
-      <c r="R33" s="134"/>
-      <c r="S33" s="135"/>
-    </row>
-    <row r="34" spans="1:19" ht="21" customHeight="1">
-      <c r="A34" s="86"/>
-      <c r="B34" s="189"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="92"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="92"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="92"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="98"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="213" t="s">
-        <v>26</v>
-      </c>
-      <c r="S34" s="214"/>
-    </row>
-    <row r="35" spans="1:19" ht="21" customHeight="1" thickBot="1">
-      <c r="A35" s="86"/>
-      <c r="B35" s="191"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="5" t="str">
-        <f>IF(C35="","","kg")</f>
-        <v/>
-      </c>
-      <c r="F35" s="102"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="5" t="str">
-        <f>IF(F35="","","kg")</f>
-        <v/>
-      </c>
-      <c r="I35" s="102"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="5" t="str">
-        <f>IF(I35="","","kg")</f>
-        <v/>
-      </c>
-      <c r="L35" s="102"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="5" t="str">
-        <f>IF(L35="","","kg")</f>
-        <v/>
-      </c>
-      <c r="O35" s="102"/>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="5" t="str">
-        <f>IF(O35="","","kg")</f>
-        <v/>
-      </c>
-      <c r="R35" s="161">
+      <c r="R33" s="161">
         <f>R16+R24</f>
         <v>0</v>
       </c>
-      <c r="S35" s="162"/>
-    </row>
-    <row r="36" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A36" s="197" t="s">
+      <c r="S33" s="162"/>
+    </row>
+    <row r="34" spans="1:19" ht="30" customHeight="1" thickBot="1">
+      <c r="A34" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="200"/>
-      <c r="C36" s="195" t="s">
+      <c r="B34" s="200"/>
+      <c r="C34" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="166"/>
-      <c r="E36" s="167" t="s">
+      <c r="D34" s="166"/>
+      <c r="E34" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="168" t="s">
+      <c r="F34" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="G36" s="166"/>
-      <c r="H36" s="167" t="s">
+      <c r="G34" s="166"/>
+      <c r="H34" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="I36" s="168" t="s">
+      <c r="I34" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="166"/>
-      <c r="K36" s="167" t="s">
+      <c r="J34" s="166"/>
+      <c r="K34" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="L36" s="168" t="s">
+      <c r="L34" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="M36" s="166"/>
-      <c r="N36" s="167" t="s">
+      <c r="M34" s="166"/>
+      <c r="N34" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="O36" s="168" t="s">
+      <c r="O34" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="196"/>
-      <c r="Q36" s="169" t="s">
+      <c r="P34" s="196"/>
+      <c r="Q34" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="R36" s="198"/>
-      <c r="S36" s="199"/>
-    </row>
-    <row r="37" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A37" s="201" t="s">
+      <c r="R34" s="198"/>
+      <c r="S34" s="199"/>
+    </row>
+    <row r="35" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A35" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="160"/>
-      <c r="C37" s="203" t="s">
+      <c r="B35" s="160"/>
+      <c r="C35" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="204"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="204" t="s">
+      <c r="D35" s="204"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="204" t="s">
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="205"/>
+      <c r="K35" s="204" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="204"/>
-      <c r="M37" s="204"/>
-      <c r="N37" s="204"/>
-      <c r="O37" s="204"/>
-      <c r="P37" s="204"/>
-      <c r="Q37" s="204"/>
-      <c r="R37" s="204"/>
-      <c r="S37" s="206"/>
-    </row>
-    <row r="38" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="87"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203" t="s">
+      <c r="L35" s="204"/>
+      <c r="M35" s="204"/>
+      <c r="N35" s="204"/>
+      <c r="O35" s="204"/>
+      <c r="P35" s="204"/>
+      <c r="Q35" s="204"/>
+      <c r="R35" s="204"/>
+      <c r="S35" s="206"/>
+    </row>
+    <row r="36" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A36" s="87"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="204"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="204" t="s">
+      <c r="D36" s="204"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="205"/>
-      <c r="K38" s="204" t="s">
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="205"/>
+      <c r="K36" s="204" t="s">
         <v>86</v>
       </c>
-      <c r="L38" s="204"/>
-      <c r="M38" s="204"/>
-      <c r="N38" s="204"/>
-      <c r="O38" s="204"/>
-      <c r="P38" s="204"/>
-      <c r="Q38" s="204"/>
-      <c r="R38" s="204"/>
-      <c r="S38" s="206"/>
-    </row>
-    <row r="39" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A39" s="116" t="s">
+      <c r="L36" s="204"/>
+      <c r="M36" s="204"/>
+      <c r="N36" s="204"/>
+      <c r="O36" s="204"/>
+      <c r="P36" s="204"/>
+      <c r="Q36" s="204"/>
+      <c r="R36" s="204"/>
+      <c r="S36" s="206"/>
+    </row>
+    <row r="37" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A37" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="117"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="122" t="s">
+      <c r="B37" s="117"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="123"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="176" t="s">
+      <c r="E37" s="123"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="128"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="174"/>
-      <c r="K39" s="176" t="s">
+      <c r="H37" s="128"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="174"/>
+      <c r="K37" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="L39" s="128"/>
-      <c r="M39" s="129"/>
-      <c r="N39" s="174"/>
-      <c r="O39" s="109" t="s">
+      <c r="L37" s="128"/>
+      <c r="M37" s="129"/>
+      <c r="N37" s="174"/>
+      <c r="O37" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="128"/>
-      <c r="R39" s="129"/>
-      <c r="S39" s="170"/>
-    </row>
-    <row r="40" spans="1:19" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A40" s="119"/>
-      <c r="B40" s="120"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="125"/>
-      <c r="E40" s="126"/>
-      <c r="F40" s="127"/>
-      <c r="G40" s="177"/>
-      <c r="H40" s="130"/>
-      <c r="I40" s="131"/>
-      <c r="J40" s="215" t="s">
+      <c r="P37" s="110"/>
+      <c r="Q37" s="128"/>
+      <c r="R37" s="129"/>
+      <c r="S37" s="170"/>
+    </row>
+    <row r="38" spans="1:19" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A38" s="119"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="126"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="177"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="K40" s="177"/>
-      <c r="L40" s="130"/>
-      <c r="M40" s="131"/>
-      <c r="N40" s="215" t="s">
+      <c r="K38" s="177"/>
+      <c r="L38" s="130"/>
+      <c r="M38" s="131"/>
+      <c r="N38" s="215" t="s">
         <v>86</v>
       </c>
-      <c r="O40" s="111"/>
-      <c r="P40" s="112"/>
-      <c r="Q40" s="130"/>
-      <c r="R40" s="131"/>
-      <c r="S40" s="171" t="s">
+      <c r="O38" s="111"/>
+      <c r="P38" s="112"/>
+      <c r="Q38" s="130"/>
+      <c r="R38" s="131"/>
+      <c r="S38" s="171" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="21" customHeight="1">
+    <row r="39" spans="1:19" ht="21" customHeight="1">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="172"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="1:19" ht="21" customHeight="1">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="1:19" ht="8.25" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="172"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:19" ht="21" customHeight="1">
+    <row r="42" spans="1:19">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-    </row>
-    <row r="43" spans="1:19" ht="8.25" customHeight="1">
+      <c r="M42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N42" s="115"/>
+      <c r="O42" s="115"/>
+      <c r="P42" s="115"/>
+      <c r="Q42" s="115"/>
+      <c r="R42" s="115"/>
+      <c r="S42" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4165,88 +4161,35 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
       <c r="S43" s="3"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-      <c r="L44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N44" s="115"/>
-      <c r="O44" s="115"/>
-      <c r="P44" s="115"/>
-      <c r="Q44" s="115"/>
-      <c r="R44" s="115"/>
-      <c r="S44" s="2" t="s">
+      <c r="M44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N44" s="108"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="108"/>
+      <c r="S44" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="F46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108"/>
-      <c r="S46" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="231">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="A37:B38"/>
+  <mergeCells count="221">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="A35:B36"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="B11:C11"/>
@@ -4259,14 +4202,14 @@
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="R10:S10"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="C32:E32"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="P8:Q8"/>
@@ -4274,8 +4217,8 @@
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O34:Q34"/>
-    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O33:P33"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="N4:O4"/>
@@ -4305,28 +4248,25 @@
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="O20:Q20"/>
     <mergeCell ref="O21:P21"/>
-    <mergeCell ref="R24:S33"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="A39:C40"/>
-    <mergeCell ref="D39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:I40"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="R24:S31"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="D37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:I38"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="N44:R44"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="I33:J33"/>
     <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="Q39:R40"/>
-    <mergeCell ref="O39:P40"/>
-    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="L37:M38"/>
+    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="O37:P38"/>
     <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I32:K32"/>
     <mergeCell ref="R22:S23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="F23:G23"/>
@@ -4351,19 +4291,12 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="L33:M33"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:H32"/>
     <mergeCell ref="L20:N20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="F21:G21"/>
@@ -4376,7 +4309,7 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A14:A35"/>
+    <mergeCell ref="A14:A33"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:H14"/>
@@ -4392,7 +4325,7 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B22:B35"/>
+    <mergeCell ref="B22:B33"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
@@ -4479,7 +4412,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/app/data/templates/factory_report.xlsx
+++ b/app/data/templates/factory_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synth\Desktop\works_env\21.Work_Streamlit\Sanbou_app\app\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63ACBA8-4674-4135-8754-770655773CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C67024-EEE0-4F51-95BC-ED3FC13D9C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{0A80F59E-C948-4541-8343-D85B94652641}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" firstSheet="1" activeTab="1" xr2:uid="{0A80F59E-C948-4541-8343-D85B94652641}"/>
   </bookViews>
   <sheets>
     <sheet name="マクロ参照シート" sheetId="4" state="hidden" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="88">
   <si>
     <t>kg</t>
     <phoneticPr fontId="2"/>
@@ -501,15 +501,18 @@
     <t>円/kg</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>____________</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="mm/dd"/>
-    <numFmt numFmtId="178" formatCode="ggge&quot;年&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="mm/dd"/>
+    <numFmt numFmtId="177" formatCode="ggge&quot;年&quot;"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1413,7 +1416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1471,7 +1474,7 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1491,426 +1494,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1931,133 +1514,533 @@
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -2074,273 +2057,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D705CA63-2BAF-45F1-B66A-2A363BEADE69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2095500" y="2714625"/>
-          <a:ext cx="2705100" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57882C3-0E53-4766-B0B6-D38EEC54A869}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1981200" y="1219200"/>
-          <a:ext cx="3105150" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1312038-B959-4666-A899-B25074E59C7B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4800600" y="2390775"/>
-          <a:ext cx="1381125" cy="476250"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE6220DC-0DF4-4C42-93E8-588A3A638F15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3600450" y="2228850"/>
-          <a:ext cx="3114675" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8F27A7-AE06-61AF-26D6-D2744457C82E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1285875" y="800100"/>
-          <a:ext cx="2219325" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2806,7 +2522,7 @@
   <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:K8"/>
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2829,342 +2545,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="31" t="s">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="172"/>
+      <c r="M1" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="32"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="34"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="196"/>
+      <c r="S1" s="197"/>
     </row>
     <row r="2" spans="1:34" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="158" t="s">
+      <c r="A2" s="173"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="159"/>
-      <c r="O2" s="157" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="176" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="159"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="55"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="83"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="140"/>
-      <c r="J3" s="139" t="s">
+      <c r="I3" s="51"/>
+      <c r="J3" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="141"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="198"/>
     </row>
     <row r="4" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A4" s="186"/>
-      <c r="B4" s="145" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="209"/>
+      <c r="F4" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="209"/>
+      <c r="H4" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="209"/>
+      <c r="J4" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="146"/>
-      <c r="L4" s="146" t="s">
+      <c r="K4" s="54"/>
+      <c r="L4" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="146"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="144"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="199"/>
     </row>
     <row r="5" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="186"/>
-      <c r="B5" s="151" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152" t="s">
+      <c r="E5" s="52"/>
+      <c r="F5" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152" t="s">
+      <c r="G5" s="52"/>
+      <c r="H5" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152" t="s">
+      <c r="I5" s="52"/>
+      <c r="J5" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152" t="s">
+      <c r="K5" s="52"/>
+      <c r="L5" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="152"/>
-      <c r="N5" s="152" t="s">
+      <c r="M5" s="52"/>
+      <c r="N5" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="152"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="149"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="158"/>
+      <c r="Q5" s="158"/>
+      <c r="R5" s="158"/>
+      <c r="S5" s="200"/>
     </row>
     <row r="6" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="186"/>
-      <c r="B6" s="163" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="164" t="s">
+      <c r="E6" s="57"/>
+      <c r="F6" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="209"/>
+      <c r="H6" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="209"/>
+      <c r="J6" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="209"/>
+      <c r="L6" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="209"/>
+      <c r="N6" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="O6" s="164"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="144"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="199"/>
     </row>
     <row r="7" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="138" t="s">
+      <c r="E7" s="50"/>
+      <c r="F7" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="138"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="139"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="136"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="164"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="201"/>
     </row>
     <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A8" s="186"/>
-      <c r="B8" s="142" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143" t="s">
+      <c r="E8" s="60"/>
+      <c r="F8" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="192"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="168"/>
+      <c r="Q8" s="169"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="202"/>
     </row>
     <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="66"/>
+      <c r="D9" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40" t="s">
+      <c r="E9" s="66"/>
+      <c r="F9" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="41" t="s">
+      <c r="G9" s="66"/>
+      <c r="H9" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="41" t="s">
+      <c r="I9" s="63"/>
+      <c r="J9" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="41" t="s">
+      <c r="K9" s="63"/>
+      <c r="L9" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="42"/>
-      <c r="N9" s="45" t="s">
+      <c r="M9" s="63"/>
+      <c r="N9" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="184" t="s">
+      <c r="O9" s="160"/>
+      <c r="P9" s="161" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="183"/>
+      <c r="Q9" s="160"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="203"/>
     </row>
     <row r="10" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="187"/>
-      <c r="B10" s="178" t="s">
+      <c r="A10" s="64"/>
+      <c r="B10" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="179"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="180"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="182"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="209"/>
+      <c r="F10" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="209"/>
+      <c r="H10" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="209"/>
+      <c r="J10" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="209"/>
+      <c r="L10" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="209"/>
+      <c r="N10" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="209"/>
+      <c r="P10" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="209"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="204"/>
     </row>
     <row r="11" spans="1:34" ht="33" customHeight="1" thickBot="1">
-      <c r="A11" s="207" t="s">
+      <c r="A11" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="212">
+      <c r="B11" s="194">
         <v>11</v>
       </c>
-      <c r="C11" s="211"/>
+      <c r="C11" s="193"/>
       <c r="D11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="194" t="s">
+      <c r="E11" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="210">
+      <c r="F11" s="192">
         <f>Q11-B11</f>
         <v>14</v>
       </c>
-      <c r="G11" s="211"/>
+      <c r="G11" s="193"/>
       <c r="H11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="194" t="s">
+      <c r="I11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="175"/>
+      <c r="J11" s="34"/>
       <c r="K11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="194" t="s">
+      <c r="L11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="175"/>
+      <c r="M11" s="34"/>
       <c r="N11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="208" t="s">
+      <c r="O11" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="209"/>
-      <c r="Q11" s="210">
+      <c r="P11" s="191"/>
+      <c r="Q11" s="192">
         <f>COUNTA(B3:S3,B5:S5,B7:S7,B9:S9,)</f>
         <v>25</v>
       </c>
-      <c r="R11" s="211"/>
+      <c r="R11" s="193"/>
       <c r="S11" s="25" t="s">
         <v>38</v>
       </c>
@@ -3183,72 +2927,72 @@
       <c r="AH11" s="8"/>
     </row>
     <row r="12" spans="1:34" ht="20.25" customHeight="1">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
       <c r="F12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="75" t="s">
+      <c r="H12" s="93"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="76"/>
-      <c r="L12" s="61">
+      <c r="K12" s="99"/>
+      <c r="L12" s="84">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M12" s="62"/>
+      <c r="M12" s="85"/>
       <c r="N12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="46">
+      <c r="R12" s="74">
         <v>0.70833333333333337</v>
       </c>
-      <c r="S12" s="47"/>
+      <c r="S12" s="75"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
     </row>
     <row r="13" spans="1:34" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="72"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="50" t="s">
+      <c r="G13" s="95"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52">
+      <c r="K13" s="79"/>
+      <c r="L13" s="80">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M13" s="53"/>
+      <c r="M13" s="81"/>
       <c r="N13" s="14" t="s">
         <v>7</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="54">
+      <c r="R13" s="82">
         <v>0.70833333333333337</v>
       </c>
-      <c r="S13" s="55"/>
+      <c r="S13" s="83"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="8"/>
@@ -3258,31 +3002,31 @@
       <c r="AB13" s="8"/>
     </row>
     <row r="14" spans="1:34" ht="21" customHeight="1">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="188" t="s">
+      <c r="B14" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="81" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="100"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="82"/>
+      <c r="S14" s="102"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="8"/>
@@ -3292,178 +3036,178 @@
       <c r="AB14" s="8"/>
     </row>
     <row r="15" spans="1:34" ht="21" customHeight="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="189"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="5" t="str">
         <f>IF(C15="","","kg")</f>
         <v/>
       </c>
-      <c r="F15" s="79"/>
-      <c r="G15" s="60"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="5" t="str">
         <f>IF(F15="","","kg")</f>
         <v/>
       </c>
-      <c r="I15" s="79"/>
-      <c r="J15" s="60"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="5" t="str">
         <f>IF(I15="","","kg")</f>
         <v/>
       </c>
-      <c r="L15" s="79"/>
-      <c r="M15" s="60"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="70"/>
       <c r="N15" s="5" t="str">
         <f>IF(L15="","","kg")</f>
         <v/>
       </c>
-      <c r="O15" s="79"/>
-      <c r="P15" s="60"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="70"/>
       <c r="Q15" s="5" t="str">
         <f>IF(O15="","","kg")</f>
         <v/>
       </c>
-      <c r="R15" s="83"/>
-      <c r="S15" s="84"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="104"/>
     </row>
     <row r="16" spans="1:34" ht="21" customHeight="1">
-      <c r="A16" s="86"/>
-      <c r="B16" s="189"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="93" cm="1">
+      <c r="A16" s="106"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="114" cm="1">
         <f t="array" ref="R16">SUMPRODUCT(IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(C14:Q21, "kg", ""), ",", "")), 0))</f>
         <v>0</v>
       </c>
-      <c r="S16" s="94"/>
+      <c r="S16" s="115"/>
     </row>
     <row r="17" spans="1:29" ht="21" customHeight="1">
-      <c r="A17" s="86"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="5" t="str">
         <f>IF(C17="","","kg")</f>
         <v/>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="60"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="70"/>
       <c r="H17" s="5" t="str">
         <f>IF(F17="","","kg")</f>
         <v/>
       </c>
-      <c r="I17" s="79"/>
-      <c r="J17" s="60"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="70"/>
       <c r="K17" s="5" t="str">
         <f>IF(I17="","","kg")</f>
         <v/>
       </c>
-      <c r="L17" s="79"/>
-      <c r="M17" s="60"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="70"/>
       <c r="N17" s="5" t="str">
         <f>IF(L17="","","kg")</f>
         <v/>
       </c>
-      <c r="O17" s="79"/>
-      <c r="P17" s="60"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="70"/>
       <c r="Q17" s="5" t="str">
         <f>IF(O17="","","kg")</f>
         <v/>
       </c>
-      <c r="R17" s="95"/>
-      <c r="S17" s="96"/>
+      <c r="R17" s="116"/>
+      <c r="S17" s="117"/>
     </row>
     <row r="18" spans="1:29" ht="21" customHeight="1">
-      <c r="A18" s="86"/>
-      <c r="B18" s="189"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="78"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="96"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="100"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="116"/>
+      <c r="S18" s="117"/>
     </row>
     <row r="19" spans="1:29" ht="21" customHeight="1">
-      <c r="A19" s="86"/>
-      <c r="B19" s="189"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="A19" s="106"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="5" t="str">
         <f>IF(C19="","","kg")</f>
         <v/>
       </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="60"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="70"/>
       <c r="H19" s="5" t="str">
         <f>IF(F19="","","kg")</f>
         <v/>
       </c>
-      <c r="I19" s="79"/>
-      <c r="J19" s="60"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="5" t="str">
         <f>IF(I19="","","kg")</f>
         <v/>
       </c>
-      <c r="L19" s="79"/>
-      <c r="M19" s="60"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="70"/>
       <c r="N19" s="5" t="str">
         <f>IF(L19="","","kg")</f>
         <v/>
       </c>
-      <c r="O19" s="79"/>
-      <c r="P19" s="60"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="70"/>
       <c r="Q19" s="5" t="str">
         <f>IF(O19="","","kg")</f>
         <v/>
       </c>
-      <c r="R19" s="95"/>
-      <c r="S19" s="96"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="117"/>
     </row>
     <row r="20" spans="1:29" ht="21" customHeight="1">
-      <c r="A20" s="86"/>
-      <c r="B20" s="189"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="96"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="117"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="8"/>
@@ -3474,40 +3218,40 @@
       <c r="AC20" s="6"/>
     </row>
     <row r="21" spans="1:29" ht="21" customHeight="1" thickBot="1">
-      <c r="A21" s="86"/>
-      <c r="B21" s="190"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="122"/>
       <c r="E21" s="11" t="str">
         <f>IF(C21="","","kg")</f>
         <v/>
       </c>
-      <c r="F21" s="102"/>
-      <c r="G21" s="100"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="122"/>
       <c r="H21" s="11" t="str">
         <f>IF(F21="","","kg")</f>
         <v/>
       </c>
-      <c r="I21" s="102"/>
-      <c r="J21" s="100"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="122"/>
       <c r="K21" s="11" t="str">
         <f>IF(I21="","","kg")</f>
         <v/>
       </c>
-      <c r="L21" s="102"/>
-      <c r="M21" s="100"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="122"/>
       <c r="N21" s="11" t="str">
         <f>IF(L21="","","kg")</f>
         <v/>
       </c>
-      <c r="O21" s="102"/>
-      <c r="P21" s="100"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="122"/>
       <c r="Q21" s="10" t="str">
         <f>IF(O21="","","kg")</f>
         <v/>
       </c>
-      <c r="R21" s="193"/>
-      <c r="S21" s="96"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="117"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="8"/>
@@ -3518,513 +3262,513 @@
       <c r="AC21" s="6"/>
     </row>
     <row r="22" spans="1:29" ht="21" customHeight="1">
-      <c r="A22" s="86"/>
-      <c r="B22" s="188" t="s">
+      <c r="A22" s="106"/>
+      <c r="B22" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="81" t="s">
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="82"/>
+      <c r="S22" s="102"/>
     </row>
     <row r="23" spans="1:29" ht="21" customHeight="1">
-      <c r="A23" s="86"/>
-      <c r="B23" s="189"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="60"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="70"/>
       <c r="E23" s="5" t="str">
         <f>IF(C23="","","kg")</f>
         <v/>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="60"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="70"/>
       <c r="H23" s="5" t="str">
         <f>IF(F23="","","kg")</f>
         <v/>
       </c>
-      <c r="I23" s="79"/>
-      <c r="J23" s="60"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="70"/>
       <c r="K23" s="5" t="str">
         <f>IF(I23="","","kg")</f>
         <v/>
       </c>
-      <c r="L23" s="79"/>
-      <c r="M23" s="60"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="70"/>
       <c r="N23" s="5" t="str">
         <f>IF(L23="","","kg")</f>
         <v/>
       </c>
-      <c r="O23" s="79"/>
-      <c r="P23" s="60"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="70"/>
       <c r="Q23" s="5" t="str">
         <f>IF(O23="","","kg")</f>
         <v/>
       </c>
-      <c r="R23" s="83"/>
-      <c r="S23" s="84"/>
+      <c r="R23" s="103"/>
+      <c r="S23" s="104"/>
     </row>
     <row r="24" spans="1:29" ht="21" customHeight="1">
-      <c r="A24" s="86"/>
-      <c r="B24" s="189"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="132" cm="1">
+      <c r="A24" s="106"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="125"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="120"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="120"/>
+      <c r="P24" s="120"/>
+      <c r="Q24" s="125"/>
+      <c r="R24" s="178" cm="1">
         <f t="array" ref="R24">SUMPRODUCT(IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(C22:Q33, "kg", ""), ",", "")), 0))</f>
         <v>0</v>
       </c>
-      <c r="S24" s="133"/>
+      <c r="S24" s="179"/>
     </row>
     <row r="25" spans="1:29" ht="21" customHeight="1">
-      <c r="A25" s="86"/>
-      <c r="B25" s="189"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
+      <c r="A25" s="106"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="5" t="str">
         <f>IF(C25="","","kg")</f>
         <v/>
       </c>
-      <c r="F25" s="79"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="5" t="str">
         <f>IF(F25="","","kg")</f>
         <v/>
       </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="60"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="70"/>
       <c r="K25" s="5" t="str">
         <f>IF(I25="","","kg")</f>
         <v/>
       </c>
-      <c r="L25" s="79"/>
-      <c r="M25" s="60"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="70"/>
       <c r="N25" s="5" t="str">
         <f>IF(L25="","","kg")</f>
         <v/>
       </c>
-      <c r="O25" s="79"/>
-      <c r="P25" s="60"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="70"/>
       <c r="Q25" s="5" t="str">
         <f>IF(O25="","","kg")</f>
         <v/>
       </c>
-      <c r="R25" s="134"/>
-      <c r="S25" s="135"/>
+      <c r="R25" s="180"/>
+      <c r="S25" s="181"/>
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1">
-      <c r="A26" s="86"/>
-      <c r="B26" s="189"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="105"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="134"/>
-      <c r="S26" s="135"/>
+      <c r="A26" s="106"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="135"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="136"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="137"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="137"/>
+      <c r="P26" s="135"/>
+      <c r="Q26" s="136"/>
+      <c r="R26" s="180"/>
+      <c r="S26" s="181"/>
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1">
-      <c r="A27" s="86"/>
-      <c r="B27" s="189"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
+      <c r="A27" s="106"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="5" t="str">
         <f>IF(C27="","","kg")</f>
         <v/>
       </c>
-      <c r="F27" s="79"/>
-      <c r="G27" s="60"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="70"/>
       <c r="H27" s="5" t="str">
         <f>IF(F27="","","kg")</f>
         <v/>
       </c>
-      <c r="I27" s="79"/>
-      <c r="J27" s="60"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="70"/>
       <c r="K27" s="5" t="str">
         <f>IF(I27="","","kg")</f>
         <v/>
       </c>
-      <c r="L27" s="79"/>
-      <c r="M27" s="60"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="70"/>
       <c r="N27" s="5" t="str">
         <f>IF(L27="","","kg")</f>
         <v/>
       </c>
-      <c r="O27" s="79"/>
-      <c r="P27" s="60"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="70"/>
       <c r="Q27" s="5" t="str">
         <f>IF(O27="","","kg")</f>
         <v/>
       </c>
-      <c r="R27" s="134"/>
-      <c r="S27" s="135"/>
+      <c r="R27" s="180"/>
+      <c r="S27" s="181"/>
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1">
-      <c r="A28" s="86"/>
-      <c r="B28" s="189"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="134"/>
-      <c r="S28" s="135"/>
+      <c r="A28" s="106"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="120"/>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="120"/>
+      <c r="H28" s="120"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="180"/>
+      <c r="S28" s="181"/>
     </row>
     <row r="29" spans="1:29" ht="21" customHeight="1">
-      <c r="A29" s="86"/>
-      <c r="B29" s="189"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
+      <c r="A29" s="106"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="5" t="str">
         <f>IF(C29="","","kg")</f>
         <v/>
       </c>
-      <c r="F29" s="79"/>
-      <c r="G29" s="60"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="70"/>
       <c r="H29" s="5" t="str">
         <f>IF(F29="","","kg")</f>
         <v/>
       </c>
-      <c r="I29" s="79"/>
-      <c r="J29" s="60"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="70"/>
       <c r="K29" s="5" t="str">
         <f>IF(I29="","","kg")</f>
         <v/>
       </c>
-      <c r="L29" s="79"/>
-      <c r="M29" s="60"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="70"/>
       <c r="N29" s="5" t="str">
         <f>IF(L29="","","kg")</f>
         <v/>
       </c>
-      <c r="O29" s="79"/>
-      <c r="P29" s="60"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="70"/>
       <c r="Q29" s="5" t="str">
         <f>IF(O29="","","kg")</f>
         <v/>
       </c>
-      <c r="R29" s="134"/>
-      <c r="S29" s="135"/>
+      <c r="R29" s="180"/>
+      <c r="S29" s="181"/>
     </row>
     <row r="30" spans="1:29" ht="21" customHeight="1">
-      <c r="A30" s="86"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="89"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="134"/>
-      <c r="S30" s="135"/>
+      <c r="A30" s="106"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="180"/>
+      <c r="S30" s="181"/>
     </row>
     <row r="31" spans="1:29" ht="21" customHeight="1" thickBot="1">
-      <c r="A31" s="86"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
+      <c r="A31" s="106"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="5" t="str">
         <f>IF(C31="","","kg")</f>
         <v/>
       </c>
-      <c r="F31" s="79"/>
-      <c r="G31" s="60"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="70"/>
       <c r="H31" s="5" t="str">
         <f>IF(F31="","","kg")</f>
         <v/>
       </c>
-      <c r="I31" s="79"/>
-      <c r="J31" s="60"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="70"/>
       <c r="K31" s="5" t="str">
         <f>IF(I31="","","kg")</f>
         <v/>
       </c>
-      <c r="L31" s="79"/>
-      <c r="M31" s="60"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="70"/>
       <c r="N31" s="5" t="str">
         <f>IF(L31="","","kg")</f>
         <v/>
       </c>
-      <c r="O31" s="79"/>
-      <c r="P31" s="60"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="70"/>
       <c r="Q31" s="5" t="str">
         <f>IF(O31="","","kg")</f>
         <v/>
       </c>
-      <c r="R31" s="134"/>
-      <c r="S31" s="135"/>
+      <c r="R31" s="180"/>
+      <c r="S31" s="181"/>
     </row>
     <row r="32" spans="1:29" ht="21" customHeight="1">
-      <c r="A32" s="86"/>
-      <c r="B32" s="189"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="98"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="213" t="s">
+      <c r="A32" s="106"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="166"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="167"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="166"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="207" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="214"/>
+      <c r="S32" s="208"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1" thickBot="1">
-      <c r="A33" s="86"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="100"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="122"/>
       <c r="E33" s="5" t="str">
         <f>IF(C33="","","kg")</f>
         <v/>
       </c>
-      <c r="F33" s="102"/>
-      <c r="G33" s="100"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="122"/>
       <c r="H33" s="5" t="str">
         <f>IF(F33="","","kg")</f>
         <v/>
       </c>
-      <c r="I33" s="102"/>
-      <c r="J33" s="100"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="122"/>
       <c r="K33" s="5" t="str">
         <f>IF(I33="","","kg")</f>
         <v/>
       </c>
-      <c r="L33" s="102"/>
-      <c r="M33" s="100"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="122"/>
       <c r="N33" s="5" t="str">
         <f>IF(L33="","","kg")</f>
         <v/>
       </c>
-      <c r="O33" s="102"/>
-      <c r="P33" s="100"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="122"/>
       <c r="Q33" s="5" t="str">
         <f>IF(O33="","","kg")</f>
         <v/>
       </c>
-      <c r="R33" s="161">
+      <c r="R33" s="205">
         <f>R16+R24</f>
         <v>0</v>
       </c>
-      <c r="S33" s="162"/>
+      <c r="S33" s="206"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A34" s="197" t="s">
+      <c r="A34" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="200"/>
-      <c r="C34" s="195" t="s">
+      <c r="B34" s="183"/>
+      <c r="C34" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="166"/>
-      <c r="E34" s="167" t="s">
+      <c r="D34" s="26"/>
+      <c r="E34" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="168" t="s">
+      <c r="F34" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="166"/>
-      <c r="H34" s="167" t="s">
+      <c r="G34" s="26"/>
+      <c r="H34" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="168" t="s">
+      <c r="I34" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J34" s="166"/>
-      <c r="K34" s="167" t="s">
+      <c r="J34" s="26"/>
+      <c r="K34" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L34" s="168" t="s">
+      <c r="L34" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="166"/>
-      <c r="N34" s="167" t="s">
+      <c r="M34" s="26"/>
+      <c r="N34" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O34" s="168" t="s">
+      <c r="O34" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="P34" s="196"/>
-      <c r="Q34" s="169" t="s">
+      <c r="P34" s="37"/>
+      <c r="Q34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="R34" s="198"/>
-      <c r="S34" s="199"/>
+      <c r="R34" s="184"/>
+      <c r="S34" s="185"/>
     </row>
     <row r="35" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="201" t="s">
+      <c r="A35" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="160"/>
-      <c r="C35" s="203" t="s">
+      <c r="B35" s="187"/>
+      <c r="C35" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="204"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
-      <c r="G35" s="204" t="s">
+      <c r="G35" s="38" t="s">
         <v>15</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
-      <c r="J35" s="205"/>
-      <c r="K35" s="204" t="s">
+      <c r="J35" s="39"/>
+      <c r="K35" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L35" s="204"/>
-      <c r="M35" s="204"/>
-      <c r="N35" s="204"/>
-      <c r="O35" s="204"/>
-      <c r="P35" s="204"/>
-      <c r="Q35" s="204"/>
-      <c r="R35" s="204"/>
-      <c r="S35" s="206"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="40"/>
     </row>
     <row r="36" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="87"/>
-      <c r="B36" s="202"/>
-      <c r="C36" s="203" t="s">
+      <c r="A36" s="188"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="204"/>
+      <c r="D36" s="38"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
-      <c r="G36" s="204" t="s">
+      <c r="G36" s="38" t="s">
         <v>15</v>
       </c>
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
-      <c r="J36" s="205"/>
-      <c r="K36" s="204" t="s">
+      <c r="J36" s="39"/>
+      <c r="K36" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="L36" s="204"/>
-      <c r="M36" s="204"/>
-      <c r="N36" s="204"/>
-      <c r="O36" s="204"/>
-      <c r="P36" s="204"/>
-      <c r="Q36" s="204"/>
-      <c r="R36" s="204"/>
-      <c r="S36" s="206"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="40"/>
     </row>
     <row r="37" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A37" s="116" t="s">
+      <c r="A37" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="122" t="s">
+      <c r="B37" s="141"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="123"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="176" t="s">
+      <c r="E37" s="147"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="138" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="128"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="174"/>
-      <c r="K37" s="176" t="s">
+      <c r="H37" s="127"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="128"/>
-      <c r="M37" s="129"/>
-      <c r="N37" s="174"/>
-      <c r="O37" s="109" t="s">
+      <c r="L37" s="127"/>
+      <c r="M37" s="128"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="128"/>
-      <c r="R37" s="129"/>
-      <c r="S37" s="170"/>
+      <c r="P37" s="132"/>
+      <c r="Q37" s="127"/>
+      <c r="R37" s="128"/>
+      <c r="S37" s="30"/>
     </row>
     <row r="38" spans="1:19" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A38" s="119"/>
-      <c r="B38" s="120"/>
-      <c r="C38" s="121"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="126"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="177"/>
-      <c r="H38" s="130"/>
-      <c r="I38" s="131"/>
-      <c r="J38" s="215" t="s">
+      <c r="A38" s="143"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="129"/>
+      <c r="I38" s="130"/>
+      <c r="J38" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="K38" s="177"/>
-      <c r="L38" s="130"/>
-      <c r="M38" s="131"/>
-      <c r="N38" s="215" t="s">
+      <c r="K38" s="139"/>
+      <c r="L38" s="129"/>
+      <c r="M38" s="130"/>
+      <c r="N38" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="O38" s="111"/>
-      <c r="P38" s="112"/>
-      <c r="Q38" s="130"/>
-      <c r="R38" s="131"/>
-      <c r="S38" s="171" t="s">
+      <c r="O38" s="133"/>
+      <c r="P38" s="134"/>
+      <c r="Q38" s="129"/>
+      <c r="R38" s="130"/>
+      <c r="S38" s="31" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4043,10 +3787,10 @@
       <c r="F39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="172"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="173"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
       <c r="K39" s="4" t="s">
         <v>8</v>
       </c>
@@ -4075,9 +3819,9 @@
         <v>6</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
       <c r="K40" s="4" t="s">
         <v>5</v>
       </c>
@@ -4122,8 +3866,8 @@
         <v>2</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="114"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
       <c r="J42" s="2" t="s">
         <v>0</v>
       </c>
@@ -4134,11 +3878,11 @@
       <c r="M42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N42" s="115"/>
-      <c r="O42" s="115"/>
-      <c r="P42" s="115"/>
-      <c r="Q42" s="115"/>
-      <c r="R42" s="115"/>
+      <c r="N42" s="157"/>
+      <c r="O42" s="157"/>
+      <c r="P42" s="157"/>
+      <c r="Q42" s="157"/>
+      <c r="R42" s="157"/>
       <c r="S42" s="2" t="s">
         <v>0</v>
       </c>
@@ -4168,31 +3912,27 @@
       <c r="F44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
       <c r="J44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N44" s="108"/>
-      <c r="O44" s="108"/>
-      <c r="P44" s="108"/>
-      <c r="Q44" s="108"/>
-      <c r="R44" s="108"/>
+      <c r="N44" s="153"/>
+      <c r="O44" s="153"/>
+      <c r="P44" s="153"/>
+      <c r="Q44" s="153"/>
+      <c r="R44" s="153"/>
       <c r="S44" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="221">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B11:C11"/>
+  <mergeCells count="222">
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="R4:S4"/>
@@ -4202,6 +3942,15 @@
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="R10:S10"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="R33:S33"/>
@@ -4209,6 +3958,9 @@
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="I32:K32"/>
     <mergeCell ref="F32:H32"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:P15"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="N8:O8"/>
@@ -4218,6 +3970,24 @@
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="R24:S31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="N42:R42"/>
     <mergeCell ref="O33:P33"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="P3:Q3"/>
@@ -4236,37 +4006,6 @@
     <mergeCell ref="O22:Q22"/>
     <mergeCell ref="O24:Q24"/>
     <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="R24:S31"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="D37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="L37:M38"/>
-    <mergeCell ref="Q37:R38"/>
-    <mergeCell ref="O37:P38"/>
-    <mergeCell ref="F28:H28"/>
     <mergeCell ref="R22:S23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="F23:G23"/>
@@ -4277,6 +4016,15 @@
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="L25:M25"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="L37:M38"/>
+    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="O37:P38"/>
+    <mergeCell ref="F28:H28"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I26:K26"/>
@@ -4284,14 +4032,23 @@
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="D37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="R16:S21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="B22:B33"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="L29:M29"/>
@@ -4302,9 +4059,23 @@
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="R14:S15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="I15:J15"/>
@@ -4317,33 +4088,6 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="R16:S21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B22:B33"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="I19:J19"/>
@@ -4354,6 +4098,8 @@
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="R13:S13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="R14:S15"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="J7:K7"/>
@@ -4368,6 +4114,8 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="A7:A8"/>
@@ -4381,17 +4129,7 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="B3:C3"/>
@@ -4408,11 +4146,17 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/app/data/templates/factory_report.xlsx
+++ b/app/data/templates/factory_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\synth\Desktop\works_env\21.Work_Streamlit\Sanbou_app\app\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C67024-EEE0-4F51-95BC-ED3FC13D9C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C9D84D-88E7-45F9-8B0B-DB9CEF014AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" firstSheet="1" activeTab="1" xr2:uid="{0A80F59E-C948-4541-8343-D85B94652641}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{0A80F59E-C948-4541-8343-D85B94652641}"/>
   </bookViews>
   <sheets>
     <sheet name="マクロ参照シート" sheetId="4" state="hidden" r:id="rId1"/>
@@ -1542,505 +1542,505 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -2522,7 +2522,7 @@
   <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2545,344 +2545,345 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18" customHeight="1">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="172"/>
-      <c r="M1" s="43" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="197"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="45"/>
     </row>
     <row r="2" spans="1:34" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="173"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="45" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="176" t="s">
+      <c r="N2" s="102"/>
+      <c r="O2" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="83"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="101"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="205" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49" t="s">
+      <c r="C3" s="200"/>
+      <c r="D3" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50" t="s">
+      <c r="E3" s="200"/>
+      <c r="F3" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="I3" s="206"/>
+      <c r="J3" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="198"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="49"/>
     </row>
     <row r="4" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="53" t="s">
+      <c r="A4" s="198"/>
+      <c r="B4" s="207" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="209"/>
-      <c r="F4" s="54" t="s">
+      <c r="E4" s="92"/>
+      <c r="F4" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="209"/>
-      <c r="H4" s="54" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="209"/>
-      <c r="J4" s="54" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="92"/>
+      <c r="L4" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="91"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="51"/>
+    </row>
+    <row r="5" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A5" s="198"/>
+      <c r="B5" s="208" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="196"/>
+      <c r="L5" s="196" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="196"/>
+      <c r="N5" s="196" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="196"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="53"/>
+    </row>
+    <row r="6" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A6" s="198"/>
+      <c r="B6" s="209" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="197"/>
+      <c r="D6" s="197" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="197"/>
+      <c r="F6" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="92"/>
+      <c r="H6" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="92"/>
+      <c r="J6" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="92"/>
+      <c r="L6" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" s="92"/>
+      <c r="N6" s="197" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" s="197"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="51"/>
+    </row>
+    <row r="7" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A7" s="198" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="199" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="200" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="200"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="121"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="55"/>
+    </row>
+    <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A8" s="198"/>
+      <c r="B8" s="201" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="199"/>
-    </row>
-    <row r="5" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="O5" s="52"/>
-      <c r="P5" s="158"/>
-      <c r="Q5" s="158"/>
-      <c r="R5" s="158"/>
-      <c r="S5" s="200"/>
-    </row>
-    <row r="6" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="56" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="54" t="s">
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="57"/>
+    </row>
+    <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A9" s="190" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="191" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="192"/>
+      <c r="D9" s="193" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="192"/>
+      <c r="F9" s="193" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="192"/>
+      <c r="H9" s="188" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="189"/>
+      <c r="J9" s="188" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="189"/>
+      <c r="L9" s="188" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="189"/>
+      <c r="N9" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="119"/>
+      <c r="P9" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="59"/>
+    </row>
+    <row r="10" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A10" s="190"/>
+      <c r="B10" s="194" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="195"/>
+      <c r="D10" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="209"/>
-      <c r="H6" s="54" t="s">
+      <c r="E10" s="92"/>
+      <c r="F10" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="209"/>
-      <c r="J6" s="54" t="s">
+      <c r="G10" s="92"/>
+      <c r="H10" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="209"/>
-      <c r="L6" s="54" t="s">
+      <c r="I10" s="92"/>
+      <c r="J10" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="209"/>
-      <c r="N6" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" s="57"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="199"/>
-    </row>
-    <row r="7" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A7" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="164"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="201"/>
-    </row>
-    <row r="8" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="168"/>
-      <c r="Q8" s="169"/>
-      <c r="R8" s="168"/>
-      <c r="S8" s="202"/>
-    </row>
-    <row r="9" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A9" s="64" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="66"/>
-      <c r="H9" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="63"/>
-      <c r="L9" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="159" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="160"/>
-      <c r="P9" s="161" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="160"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="203"/>
-    </row>
-    <row r="10" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A10" s="64"/>
-      <c r="B10" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="54" t="s">
+      <c r="K10" s="92"/>
+      <c r="L10" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="209"/>
-      <c r="F10" s="54" t="s">
+      <c r="M10" s="92"/>
+      <c r="N10" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="209"/>
-      <c r="H10" s="54" t="s">
+      <c r="O10" s="92"/>
+      <c r="P10" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="I10" s="209"/>
-      <c r="J10" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="209"/>
-      <c r="L10" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="209"/>
-      <c r="N10" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="O10" s="209"/>
-      <c r="P10" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="209"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="204"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="61"/>
     </row>
     <row r="11" spans="1:34" ht="33" customHeight="1" thickBot="1">
       <c r="A11" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="194">
-        <v>11</v>
-      </c>
-      <c r="C11" s="193"/>
+      <c r="B11" s="75">
+        <f>COUNTA(B3:K3)</f>
+        <v>5</v>
+      </c>
+      <c r="C11" s="47"/>
       <c r="D11" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="192">
+      <c r="F11" s="46">
         <f>Q11-B11</f>
-        <v>14</v>
-      </c>
-      <c r="G11" s="193"/>
+        <v>19</v>
+      </c>
+      <c r="G11" s="47"/>
       <c r="H11" s="22" t="s">
         <v>38</v>
       </c>
@@ -2900,15 +2901,15 @@
       <c r="N11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="190" t="s">
+      <c r="O11" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="191"/>
-      <c r="Q11" s="192">
-        <f>COUNTA(B3:S3,B5:S5,B7:S7,B9:S9,)</f>
-        <v>25</v>
-      </c>
-      <c r="R11" s="193"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="46">
+        <f>COUNTA(B3:S3,B5:S5,B7:S7,B9:S9)</f>
+        <v>24</v>
+      </c>
+      <c r="R11" s="47"/>
       <c r="S11" s="25" t="s">
         <v>38</v>
       </c>
@@ -2927,72 +2928,72 @@
       <c r="AH11" s="8"/>
     </row>
     <row r="12" spans="1:34" ht="20.25" customHeight="1">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
       <c r="F12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="98" t="s">
+      <c r="H12" s="167"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="99"/>
-      <c r="L12" s="84">
+      <c r="K12" s="173"/>
+      <c r="L12" s="186">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M12" s="85"/>
+      <c r="M12" s="187"/>
       <c r="N12" s="13" t="s">
         <v>7</v>
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="13"/>
-      <c r="R12" s="74">
+      <c r="R12" s="178">
         <v>0.70833333333333337</v>
       </c>
-      <c r="S12" s="75"/>
+      <c r="S12" s="179"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
     </row>
     <row r="13" spans="1:34" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="A13" s="162"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="181"/>
       <c r="F13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="95"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="78" t="s">
+      <c r="G13" s="169"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="79"/>
-      <c r="L13" s="80">
+      <c r="K13" s="183"/>
+      <c r="L13" s="184">
         <v>0.33333333333333331</v>
       </c>
-      <c r="M13" s="81"/>
+      <c r="M13" s="100"/>
       <c r="N13" s="14" t="s">
         <v>7</v>
       </c>
       <c r="O13" s="14"/>
       <c r="P13" s="14"/>
       <c r="Q13" s="14"/>
-      <c r="R13" s="82">
+      <c r="R13" s="185">
         <v>0.70833333333333337</v>
       </c>
-      <c r="S13" s="83"/>
+      <c r="S13" s="101"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
       <c r="X13" s="8"/>
@@ -3002,31 +3003,31 @@
       <c r="AB13" s="8"/>
     </row>
     <row r="14" spans="1:34" ht="21" customHeight="1">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="157" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="101" t="s">
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="88"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="S14" s="102"/>
+      <c r="S14" s="123"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
       <c r="X14" s="8"/>
@@ -3036,178 +3037,178 @@
       <c r="AB14" s="8"/>
     </row>
     <row r="15" spans="1:34" ht="21" customHeight="1">
-      <c r="A15" s="106"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="70"/>
+      <c r="A15" s="175"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="5" t="str">
         <f>IF(C15="","","kg")</f>
         <v/>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="70"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="63"/>
       <c r="H15" s="5" t="str">
         <f>IF(F15="","","kg")</f>
         <v/>
       </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="70"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
       <c r="K15" s="5" t="str">
         <f>IF(I15="","","kg")</f>
         <v/>
       </c>
-      <c r="L15" s="71"/>
-      <c r="M15" s="70"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="5" t="str">
         <f>IF(L15="","","kg")</f>
         <v/>
       </c>
-      <c r="O15" s="71"/>
-      <c r="P15" s="70"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="63"/>
       <c r="Q15" s="5" t="str">
         <f>IF(O15="","","kg")</f>
         <v/>
       </c>
-      <c r="R15" s="103"/>
-      <c r="S15" s="104"/>
+      <c r="R15" s="124"/>
+      <c r="S15" s="125"/>
     </row>
     <row r="16" spans="1:34" ht="21" customHeight="1">
-      <c r="A16" s="106"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="114" cm="1">
+      <c r="A16" s="175"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="152" cm="1">
         <f t="array" ref="R16">SUMPRODUCT(IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(C14:Q21, "kg", ""), ",", "")), 0))</f>
         <v>0</v>
       </c>
-      <c r="S16" s="115"/>
+      <c r="S16" s="153"/>
     </row>
     <row r="17" spans="1:29" ht="21" customHeight="1">
-      <c r="A17" s="106"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
+      <c r="A17" s="175"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="5" t="str">
         <f>IF(C17="","","kg")</f>
         <v/>
       </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="70"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
       <c r="H17" s="5" t="str">
         <f>IF(F17="","","kg")</f>
         <v/>
       </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="70"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
       <c r="K17" s="5" t="str">
         <f>IF(I17="","","kg")</f>
         <v/>
       </c>
-      <c r="L17" s="71"/>
-      <c r="M17" s="70"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
       <c r="N17" s="5" t="str">
         <f>IF(L17="","","kg")</f>
         <v/>
       </c>
-      <c r="O17" s="71"/>
-      <c r="P17" s="70"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="63"/>
       <c r="Q17" s="5" t="str">
         <f>IF(O17="","","kg")</f>
         <v/>
       </c>
-      <c r="R17" s="116"/>
-      <c r="S17" s="117"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="155"/>
     </row>
     <row r="18" spans="1:29" ht="21" customHeight="1">
-      <c r="A18" s="106"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="116"/>
-      <c r="S18" s="117"/>
+      <c r="A18" s="175"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="155"/>
     </row>
     <row r="19" spans="1:29" ht="21" customHeight="1">
-      <c r="A19" s="106"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="70"/>
+      <c r="A19" s="175"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="5" t="str">
         <f>IF(C19="","","kg")</f>
         <v/>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="70"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="5" t="str">
         <f>IF(F19="","","kg")</f>
         <v/>
       </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="70"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="5" t="str">
         <f>IF(I19="","","kg")</f>
         <v/>
       </c>
-      <c r="L19" s="71"/>
-      <c r="M19" s="70"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="63"/>
       <c r="N19" s="5" t="str">
         <f>IF(L19="","","kg")</f>
         <v/>
       </c>
-      <c r="O19" s="71"/>
-      <c r="P19" s="70"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="63"/>
       <c r="Q19" s="5" t="str">
         <f>IF(O19="","","kg")</f>
         <v/>
       </c>
-      <c r="R19" s="116"/>
-      <c r="S19" s="117"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="155"/>
     </row>
     <row r="20" spans="1:29" ht="21" customHeight="1">
-      <c r="A20" s="106"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="117"/>
+      <c r="A20" s="175"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="155"/>
       <c r="V20" s="9"/>
       <c r="W20" s="9"/>
       <c r="X20" s="8"/>
@@ -3218,40 +3219,40 @@
       <c r="AC20" s="6"/>
     </row>
     <row r="21" spans="1:29" ht="21" customHeight="1" thickBot="1">
-      <c r="A21" s="106"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="122"/>
+      <c r="A21" s="175"/>
+      <c r="B21" s="176"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="77"/>
       <c r="E21" s="11" t="str">
         <f>IF(C21="","","kg")</f>
         <v/>
       </c>
-      <c r="F21" s="123"/>
-      <c r="G21" s="122"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="11" t="str">
         <f>IF(F21="","","kg")</f>
         <v/>
       </c>
-      <c r="I21" s="123"/>
-      <c r="J21" s="122"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="77"/>
       <c r="K21" s="11" t="str">
         <f>IF(I21="","","kg")</f>
         <v/>
       </c>
-      <c r="L21" s="123"/>
-      <c r="M21" s="122"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77"/>
       <c r="N21" s="11" t="str">
         <f>IF(L21="","","kg")</f>
         <v/>
       </c>
-      <c r="O21" s="123"/>
-      <c r="P21" s="122"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="77"/>
       <c r="Q21" s="10" t="str">
         <f>IF(O21="","","kg")</f>
         <v/>
       </c>
-      <c r="R21" s="118"/>
-      <c r="S21" s="117"/>
+      <c r="R21" s="156"/>
+      <c r="S21" s="155"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="8"/>
@@ -3262,129 +3263,129 @@
       <c r="AC21" s="6"/>
     </row>
     <row r="22" spans="1:29" ht="21" customHeight="1">
-      <c r="A22" s="106"/>
-      <c r="B22" s="107" t="s">
+      <c r="A22" s="175"/>
+      <c r="B22" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="101" t="s">
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
+      <c r="M22" s="108"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="S22" s="102"/>
+      <c r="S22" s="123"/>
     </row>
     <row r="23" spans="1:29" ht="21" customHeight="1">
-      <c r="A23" s="106"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="70"/>
+      <c r="A23" s="175"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="5" t="str">
         <f>IF(C23="","","kg")</f>
         <v/>
       </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="70"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="5" t="str">
         <f>IF(F23="","","kg")</f>
         <v/>
       </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="70"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
       <c r="K23" s="5" t="str">
         <f>IF(I23="","","kg")</f>
         <v/>
       </c>
-      <c r="L23" s="71"/>
-      <c r="M23" s="70"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="63"/>
       <c r="N23" s="5" t="str">
         <f>IF(L23="","","kg")</f>
         <v/>
       </c>
-      <c r="O23" s="71"/>
-      <c r="P23" s="70"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="63"/>
       <c r="Q23" s="5" t="str">
         <f>IF(O23="","","kg")</f>
         <v/>
       </c>
-      <c r="R23" s="103"/>
-      <c r="S23" s="104"/>
+      <c r="R23" s="124"/>
+      <c r="S23" s="125"/>
     </row>
     <row r="24" spans="1:29" ht="21" customHeight="1">
-      <c r="A24" s="106"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="120"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="120"/>
-      <c r="M24" s="120"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="120"/>
-      <c r="P24" s="120"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="178" cm="1">
+      <c r="A24" s="175"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="104" cm="1">
         <f t="array" ref="R24">SUMPRODUCT(IFERROR(VALUE(SUBSTITUTE(SUBSTITUTE(C22:Q33, "kg", ""), ",", "")), 0))</f>
         <v>0</v>
       </c>
-      <c r="S24" s="179"/>
+      <c r="S24" s="105"/>
     </row>
     <row r="25" spans="1:29" ht="21" customHeight="1">
-      <c r="A25" s="106"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="70"/>
+      <c r="A25" s="175"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="5" t="str">
         <f>IF(C25="","","kg")</f>
         <v/>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="70"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="5" t="str">
         <f>IF(F25="","","kg")</f>
         <v/>
       </c>
-      <c r="I25" s="71"/>
-      <c r="J25" s="70"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
       <c r="K25" s="5" t="str">
         <f>IF(I25="","","kg")</f>
         <v/>
       </c>
-      <c r="L25" s="71"/>
-      <c r="M25" s="70"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="63"/>
       <c r="N25" s="5" t="str">
         <f>IF(L25="","","kg")</f>
         <v/>
       </c>
-      <c r="O25" s="71"/>
-      <c r="P25" s="70"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
       <c r="Q25" s="5" t="str">
         <f>IF(O25="","","kg")</f>
         <v/>
       </c>
-      <c r="R25" s="180"/>
-      <c r="S25" s="181"/>
+      <c r="R25" s="106"/>
+      <c r="S25" s="107"/>
     </row>
     <row r="26" spans="1:29" ht="21" customHeight="1">
-      <c r="A26" s="106"/>
-      <c r="B26" s="108"/>
+      <c r="A26" s="175"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="135"/>
       <c r="D26" s="135"/>
       <c r="E26" s="136"/>
@@ -3400,226 +3401,226 @@
       <c r="O26" s="137"/>
       <c r="P26" s="135"/>
       <c r="Q26" s="136"/>
-      <c r="R26" s="180"/>
-      <c r="S26" s="181"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="107"/>
     </row>
     <row r="27" spans="1:29" ht="21" customHeight="1">
-      <c r="A27" s="106"/>
-      <c r="B27" s="108"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
+      <c r="A27" s="175"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="63"/>
       <c r="E27" s="5" t="str">
         <f>IF(C27="","","kg")</f>
         <v/>
       </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="70"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="5" t="str">
         <f>IF(F27="","","kg")</f>
         <v/>
       </c>
-      <c r="I27" s="71"/>
-      <c r="J27" s="70"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
       <c r="K27" s="5" t="str">
         <f>IF(I27="","","kg")</f>
         <v/>
       </c>
-      <c r="L27" s="71"/>
-      <c r="M27" s="70"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="63"/>
       <c r="N27" s="5" t="str">
         <f>IF(L27="","","kg")</f>
         <v/>
       </c>
-      <c r="O27" s="71"/>
-      <c r="P27" s="70"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63"/>
       <c r="Q27" s="5" t="str">
         <f>IF(O27="","","kg")</f>
         <v/>
       </c>
-      <c r="R27" s="180"/>
-      <c r="S27" s="181"/>
+      <c r="R27" s="106"/>
+      <c r="S27" s="107"/>
     </row>
     <row r="28" spans="1:29" ht="21" customHeight="1">
-      <c r="A28" s="106"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="120"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="120"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="120"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="180"/>
-      <c r="S28" s="181"/>
+      <c r="A28" s="175"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="107"/>
     </row>
     <row r="29" spans="1:29" ht="21" customHeight="1">
-      <c r="A29" s="106"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
+      <c r="A29" s="175"/>
+      <c r="B29" s="158"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="5" t="str">
         <f>IF(C29="","","kg")</f>
         <v/>
       </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="70"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="5" t="str">
         <f>IF(F29="","","kg")</f>
         <v/>
       </c>
-      <c r="I29" s="71"/>
-      <c r="J29" s="70"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
       <c r="K29" s="5" t="str">
         <f>IF(I29="","","kg")</f>
         <v/>
       </c>
-      <c r="L29" s="71"/>
-      <c r="M29" s="70"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="63"/>
       <c r="N29" s="5" t="str">
         <f>IF(L29="","","kg")</f>
         <v/>
       </c>
-      <c r="O29" s="71"/>
-      <c r="P29" s="70"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
       <c r="Q29" s="5" t="str">
         <f>IF(O29="","","kg")</f>
         <v/>
       </c>
-      <c r="R29" s="180"/>
-      <c r="S29" s="181"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="107"/>
     </row>
     <row r="30" spans="1:29" ht="21" customHeight="1">
-      <c r="A30" s="106"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="112"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="111"/>
-      <c r="N30" s="112"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="111"/>
+      <c r="A30" s="175"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="109"/>
+      <c r="P30" s="110"/>
       <c r="Q30" s="126"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="181"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="107"/>
     </row>
     <row r="31" spans="1:29" ht="21" customHeight="1" thickBot="1">
-      <c r="A31" s="106"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
+      <c r="A31" s="175"/>
+      <c r="B31" s="158"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="5" t="str">
         <f>IF(C31="","","kg")</f>
         <v/>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="70"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="5" t="str">
         <f>IF(F31="","","kg")</f>
         <v/>
       </c>
-      <c r="I31" s="71"/>
-      <c r="J31" s="70"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
       <c r="K31" s="5" t="str">
         <f>IF(I31="","","kg")</f>
         <v/>
       </c>
-      <c r="L31" s="71"/>
-      <c r="M31" s="70"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="5" t="str">
         <f>IF(L31="","","kg")</f>
         <v/>
       </c>
-      <c r="O31" s="71"/>
-      <c r="P31" s="70"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63"/>
       <c r="Q31" s="5" t="str">
         <f>IF(O31="","","kg")</f>
         <v/>
       </c>
-      <c r="R31" s="180"/>
-      <c r="S31" s="181"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="107"/>
     </row>
     <row r="32" spans="1:29" ht="21" customHeight="1">
-      <c r="A32" s="106"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="166"/>
-      <c r="N32" s="167"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="166"/>
-      <c r="Q32" s="177"/>
-      <c r="R32" s="207" t="s">
+      <c r="A32" s="175"/>
+      <c r="B32" s="158"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="208"/>
+      <c r="S32" s="82"/>
     </row>
     <row r="33" spans="1:19" ht="21" customHeight="1" thickBot="1">
-      <c r="A33" s="106"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="121"/>
-      <c r="D33" s="122"/>
+      <c r="A33" s="175"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="5" t="str">
         <f>IF(C33="","","kg")</f>
         <v/>
       </c>
-      <c r="F33" s="123"/>
-      <c r="G33" s="122"/>
+      <c r="F33" s="76"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="5" t="str">
         <f>IF(F33="","","kg")</f>
         <v/>
       </c>
-      <c r="I33" s="123"/>
-      <c r="J33" s="122"/>
+      <c r="I33" s="76"/>
+      <c r="J33" s="77"/>
       <c r="K33" s="5" t="str">
         <f>IF(I33="","","kg")</f>
         <v/>
       </c>
-      <c r="L33" s="123"/>
-      <c r="M33" s="122"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="77"/>
       <c r="N33" s="5" t="str">
         <f>IF(L33="","","kg")</f>
         <v/>
       </c>
-      <c r="O33" s="123"/>
-      <c r="P33" s="122"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="77"/>
       <c r="Q33" s="5" t="str">
         <f>IF(O33="","","kg")</f>
         <v/>
       </c>
-      <c r="R33" s="205">
+      <c r="R33" s="79">
         <f>R16+R24</f>
         <v>0</v>
       </c>
-      <c r="S33" s="206"/>
+      <c r="S33" s="80"/>
     </row>
     <row r="34" spans="1:19" ht="30" customHeight="1" thickBot="1">
-      <c r="A34" s="182" t="s">
+      <c r="A34" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="183"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="36" t="s">
         <v>24</v>
       </c>
@@ -3655,14 +3656,14 @@
       <c r="Q34" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="R34" s="184"/>
-      <c r="S34" s="185"/>
+      <c r="R34" s="67"/>
+      <c r="S34" s="68"/>
     </row>
     <row r="35" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A35" s="186" t="s">
+      <c r="A35" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="187"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="37" t="s">
         <v>17</v>
       </c>
@@ -3688,8 +3689,8 @@
       <c r="S35" s="40"/>
     </row>
     <row r="36" spans="1:19" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A36" s="188"/>
-      <c r="B36" s="189"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="37" t="s">
         <v>16</v>
       </c>
@@ -3788,9 +3789,9 @@
         <v>9</v>
       </c>
       <c r="G39" s="32"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="154"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
       <c r="K39" s="4" t="s">
         <v>8</v>
       </c>
@@ -3819,9 +3820,9 @@
         <v>6</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="H40" s="155"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="155"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
       <c r="K40" s="4" t="s">
         <v>5</v>
       </c>
@@ -3866,8 +3867,8 @@
         <v>2</v>
       </c>
       <c r="G42" s="3"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
       <c r="J42" s="2" t="s">
         <v>0</v>
       </c>
@@ -3878,11 +3879,11 @@
       <c r="M42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N42" s="157"/>
-      <c r="O42" s="157"/>
-      <c r="P42" s="157"/>
-      <c r="Q42" s="157"/>
-      <c r="R42" s="157"/>
+      <c r="N42" s="118"/>
+      <c r="O42" s="118"/>
+      <c r="P42" s="118"/>
+      <c r="Q42" s="118"/>
+      <c r="R42" s="118"/>
       <c r="S42" s="2" t="s">
         <v>0</v>
       </c>
@@ -3912,76 +3913,164 @@
       <c r="F44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
       <c r="J44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N44" s="153"/>
-      <c r="O44" s="153"/>
-      <c r="P44" s="153"/>
-      <c r="Q44" s="153"/>
-      <c r="R44" s="153"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
       <c r="S44" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="222">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="L32:N32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="R24:S31"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="R14:S15"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:I13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A14:A33"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="R16:S21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="L37:M38"/>
+    <mergeCell ref="Q37:R38"/>
+    <mergeCell ref="O37:P38"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="A37:C38"/>
+    <mergeCell ref="D37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:I38"/>
+    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="N44:R44"/>
     <mergeCell ref="H39:J39"/>
@@ -4006,153 +4095,65 @@
     <mergeCell ref="O22:Q22"/>
     <mergeCell ref="O24:Q24"/>
     <mergeCell ref="O25:P25"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="O32:Q32"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="R24:S31"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
     <mergeCell ref="R22:S23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="C32:E32"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="L24:N24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="O30:Q30"/>
-    <mergeCell ref="L37:M38"/>
-    <mergeCell ref="Q37:R38"/>
-    <mergeCell ref="O37:P38"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="A37:C38"/>
-    <mergeCell ref="D37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:I38"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:Q28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="R16:S21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="B22:B33"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:I13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A14:A33"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="R14:S15"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
